--- a/Input/MSISDN_Data_Info.xlsx
+++ b/Input/MSISDN_Data_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vodafone-my.sharepoint.com/personal/moneri_mochochoko_vodacom_co_ls/Documents/Documents/UiPath/Mpesa Statement extraction/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{6A30CADC-86AB-4D35-A914-D34D2C464244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE06A6CF-AED7-47F5-9DBB-886F721D0932}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{6A30CADC-86AB-4D35-A914-D34D2C464244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6665CA5-9E05-4262-9515-80595927A405}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E2641357-ED79-41BB-B87D-C94ABA8F85E2}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>Ministry Of Education</t>
   </si>
   <si>
-    <t>Organization</t>
+    <t>Recepient_Email</t>
   </si>
 </sst>
 </file>
@@ -437,11 +437,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C5A1B7-CFA7-4C18-9383-184B012B096C}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -450,9 +448,10 @@
     <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +467,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>56923304</v>
       </c>
@@ -486,7 +488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>58010280</v>
       </c>
@@ -497,7 +499,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50056036</v>
       </c>
@@ -508,13 +510,11 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10532</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
